--- a/artfynd/A 28601-2021.xlsx
+++ b/artfynd/A 28601-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112043839</v>
+        <v>112043819</v>
       </c>
       <c r="B2" t="n">
         <v>78578</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547969.1136702761</v>
+        <v>547978.599132876</v>
       </c>
       <c r="R2" t="n">
-        <v>6960405.431621817</v>
+        <v>6960195.341978069</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112043819</v>
+        <v>112043839</v>
       </c>
       <c r="B4" t="n">
         <v>78578</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>547978.599132876</v>
+        <v>547969.1136702761</v>
       </c>
       <c r="R4" t="n">
-        <v>6960195.341978069</v>
+        <v>6960405.431621817</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 28601-2021.xlsx
+++ b/artfynd/A 28601-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112043819</v>
+        <v>112043807</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547978.599132876</v>
+        <v>547960.6261234989</v>
       </c>
       <c r="R2" t="n">
-        <v>6960195.341978069</v>
+        <v>6960421.337752372</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -766,6 +770,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112043807</v>
+        <v>112043839</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,38 +817,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>547960.6261234989</v>
+        <v>547969.1136702761</v>
       </c>
       <c r="R3" t="n">
-        <v>6960421.337752372</v>
+        <v>6960405.431621817</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -882,11 +887,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -913,7 +913,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112043839</v>
+        <v>112043819</v>
       </c>
       <c r="B4" t="n">
         <v>78578</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>547969.1136702761</v>
+        <v>547978.599132876</v>
       </c>
       <c r="R4" t="n">
-        <v>6960405.431621817</v>
+        <v>6960195.341978069</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 28601-2021.xlsx
+++ b/artfynd/A 28601-2021.xlsx
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547960.6261234989</v>
+        <v>547961</v>
       </c>
       <c r="R2" t="n">
-        <v>6960421.337752372</v>
+        <v>6960421</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -757,19 +757,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -801,7 +791,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112043839</v>
+        <v>112043819</v>
       </c>
       <c r="B3" t="n">
         <v>78578</v>
@@ -841,10 +831,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>547969.1136702761</v>
+        <v>547979</v>
       </c>
       <c r="R3" t="n">
-        <v>6960405.431621817</v>
+        <v>6960195</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -874,19 +864,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -913,7 +893,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112043819</v>
+        <v>112043839</v>
       </c>
       <c r="B4" t="n">
         <v>78578</v>
@@ -953,10 +933,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>547978.599132876</v>
+        <v>547969</v>
       </c>
       <c r="R4" t="n">
-        <v>6960195.341978069</v>
+        <v>6960405</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -986,19 +966,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 28601-2021.xlsx
+++ b/artfynd/A 28601-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112043807</v>
+        <v>112043819</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>78699</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547961</v>
+        <v>547979</v>
       </c>
       <c r="R2" t="n">
-        <v>6960421</v>
+        <v>6960195</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -760,11 +756,6 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -791,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112043819</v>
+        <v>112043839</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -831,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>547979</v>
+        <v>547969</v>
       </c>
       <c r="R3" t="n">
-        <v>6960195</v>
+        <v>6960405</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -893,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112043839</v>
+        <v>112043807</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>56430</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -909,34 +900,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>547969</v>
+        <v>547961</v>
       </c>
       <c r="R4" t="n">
-        <v>6960405</v>
+        <v>6960421</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -969,6 +964,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 28601-2021.xlsx
+++ b/artfynd/A 28601-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112043819</v>
+        <v>112043839</v>
       </c>
       <c r="B2" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547979</v>
+        <v>547969</v>
       </c>
       <c r="R2" t="n">
-        <v>6960195</v>
+        <v>6960405</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112043839</v>
+        <v>112043807</v>
       </c>
       <c r="B3" t="n">
-        <v>78699</v>
+        <v>56430</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,34 +798,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>547969</v>
+        <v>547961</v>
       </c>
       <c r="R3" t="n">
-        <v>6960405</v>
+        <v>6960421</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -858,6 +862,11 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,10 +893,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112043807</v>
+        <v>112043819</v>
       </c>
       <c r="B4" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -900,38 +909,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>547961</v>
+        <v>547979</v>
       </c>
       <c r="R4" t="n">
-        <v>6960421</v>
+        <v>6960195</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,11 +969,6 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 28601-2021.xlsx
+++ b/artfynd/A 28601-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112043839</v>
+        <v>112043819</v>
       </c>
       <c r="B2" t="n">
         <v>78713</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547969</v>
+        <v>547979</v>
       </c>
       <c r="R2" t="n">
-        <v>6960405</v>
+        <v>6960195</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112043807</v>
+        <v>112043839</v>
       </c>
       <c r="B3" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,38 +798,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>547961</v>
+        <v>547969</v>
       </c>
       <c r="R3" t="n">
-        <v>6960421</v>
+        <v>6960405</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -862,11 +858,6 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -893,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112043819</v>
+        <v>112043807</v>
       </c>
       <c r="B4" t="n">
-        <v>78713</v>
+        <v>56430</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -909,34 +900,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>547979</v>
+        <v>547961</v>
       </c>
       <c r="R4" t="n">
-        <v>6960195</v>
+        <v>6960421</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -969,6 +964,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
